--- a/biology/Botanique/Haplodiniaceae/Haplodiniaceae.xlsx
+++ b/biology/Botanique/Haplodiniaceae/Haplodiniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Haplodiniaceae sont une famille d'algues dinoflagellés de l’ordre des Prorocentrales[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Haplodiniaceae sont une famille d'algues dinoflagellés de l’ordre des Prorocentrales.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Haplodinium, formé du suffixe haplo-, « simple ; une seule fois », et du suffixe -din (allusion aux dinoflagellés), littéralement « dinoflagellé simple », peut-être en référence à la morphologie particulière de cette dinoflagellé, notamment l'absence des sillons de flagelle équatorial (cingulum), et longitudinal  (sulcus) et des flagelles émergeant en position apicale plutôt que ventrale (desmokontes)[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Haplodinium, formé du suffixe haplo-, « simple ; une seule fois », et du suffixe -din (allusion aux dinoflagellés), littéralement « dinoflagellé simple », peut-être en référence à la morphologie particulière de cette dinoflagellé, notamment l'absence des sillons de flagelle équatorial (cingulum), et longitudinal  (sulcus) et des flagelles émergeant en position apicale plutôt que ventrale (desmokontes),.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (16 janvier 2022)[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (16 janvier 2022)
 Pleuromonas Fromentel
-Selon World Register of Marine Species                               (16 janvier 2022)[4]
+Selon World Register of Marine Species                               (16 janvier 2022)
 Haplodinium Klebs, 1912
 Pleromonas Pascher, 1914</t>
         </is>
@@ -576,9 +592,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">AlgaeBase                                           (16 janvier 2022)[1] classe le genre type Haplodinium  dans la famille des Prorocentraceae.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AlgaeBase                                           (16 janvier 2022) classe le genre type Haplodinium  dans la famille des Prorocentraceae.
 </t>
         </is>
       </c>
